--- a/Logical operators/and/and_updated_dataframe.xlsx
+++ b/Logical operators/and/and_updated_dataframe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kendu\Desktop\Sasha_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kendu\Desktop\Sasha_code\Stable-Diffusion-Experiments\Logical operators\and\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C80A0C-4C2F-4514-9604-C6BB4CF6BB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3DDDD-9A1B-4E20-BBBB-FBCA5E621B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BA8FC576-7D2B-4480-AC67-BA4A1D5C98AF}"/>
   </bookViews>
@@ -503,7 +503,7 @@
     <t>ALL BOTH</t>
   </si>
   <si>
-    <t>ALL BALONG WITH</t>
+    <t>ALL ALONG WITH</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <f>AND(F11 = TRUE, G11 = TRUE)</f>
+        <f t="shared" ref="H11:H20" si="1">AND(F11 = TRUE, G11 = TRUE)</f>
         <v>1</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <f>AND(F12 = TRUE, G12 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <f>AND(F13 = TRUE, G13 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="b">
-        <f>AND(F14 = TRUE, G14 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="2">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="b">
-        <f>AND(F15 = TRUE, G15 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <f>AND(F16 = TRUE, G16 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <f>AND(F17 = TRUE, G17 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="b">
-        <f>AND(F18 = TRUE, G18 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18">
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="b">
-        <f>AND(F19 = TRUE, G19 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" t="s">
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="b">
-        <f>AND(F20 = TRUE, G20 = TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2894,11 +2894,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I3 I19 F1:G1048576 H2:H51">
+  <conditionalFormatting sqref="F1:G1048576 H2:H51 I3 I19">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>